--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -2,39 +2,79 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="850" visibility="visible" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="5">
     <font>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -42,22 +82,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="ปกติ" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -99,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -131,9 +256,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -165,6 +308,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -345,186 +506,762 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleSheetLayoutView="90">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="21" width="22.625"/>
+    <col customWidth="1" max="2" min="2" style="21" width="12.75"/>
+    <col customWidth="1" max="3" min="3" style="21" width="5.25"/>
+    <col customWidth="1" max="4" min="4" style="21" width="13.5"/>
+    <col customWidth="1" max="5" min="5" style="21" width="14.75"/>
+    <col customWidth="1" max="6" min="6" style="21" width="10.625"/>
+    <col customWidth="1" max="7" min="7" style="21" width="17.875"/>
+    <col customWidth="1" max="8" min="8" style="21" width="12"/>
+    <col customWidth="1" max="9" min="9" style="21" width="5.875"/>
+    <col customWidth="1" max="10" min="10" style="21" width="10.625"/>
+    <col customWidth="1" max="11" min="11" style="21" width="13.125"/>
+    <col customWidth="1" max="13" min="13" style="21" width="7.625"/>
+    <col customWidth="1" max="14" min="14" style="21" width="11.125"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ZJJJCG8</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
+        <is>
+          <t>SBOBETCAFE</t>
+        </is>
+      </c>
+      <c r="G1" s="20" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Profit</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>คำนวน</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>คำนวน</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Profit</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>คำนวน</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>คำนวน</t>
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>ProFit</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>03-09-02-63</t>
+        </is>
+      </c>
+      <c r="C2" s="23" t="n"/>
+      <c r="D2" s="14" t="inlineStr">
+        <is>
+          <t>คำนวณ</t>
+        </is>
+      </c>
+      <c r="E2" s="14" t="inlineStr">
+        <is>
+          <t>คำนวณ</t>
+        </is>
+      </c>
+      <c r="G2" s="19" t="inlineStr">
+        <is>
+          <t>ProFit</t>
+        </is>
+      </c>
+      <c r="H2" s="23" t="inlineStr">
+        <is>
+          <t>03-09-02-63</t>
+        </is>
+      </c>
+      <c r="I2" s="19" t="n"/>
+      <c r="J2" s="14" t="inlineStr">
+        <is>
+          <t>คำนวณ</t>
+        </is>
+      </c>
+      <c r="K2" s="14" t="inlineStr">
+        <is>
+          <t>คำนวณ</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Web-User</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="15" t="inlineStr">
+        <is>
+          <t>Web - User</t>
+        </is>
+      </c>
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>จำนวน</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Web-User</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="C3" s="23" t="n"/>
+      <c r="D3" s="23" t="n"/>
+      <c r="E3" s="23" t="n"/>
+      <c r="G3" s="19" t="inlineStr">
+        <is>
+          <t>Web - User</t>
+        </is>
+      </c>
+      <c r="H3" s="15" t="inlineStr">
         <is>
           <t>จำนวน</t>
         </is>
       </c>
+      <c r="I3" s="19" t="n"/>
+      <c r="J3" s="19" t="n"/>
+      <c r="K3" s="23" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SBOBET - </t>
+        </is>
+      </c>
+      <c r="B4" s="28" t="n"/>
+      <c r="C4" s="10" t="n"/>
+      <c r="D4" s="10" t="n"/>
+      <c r="E4" s="25" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SBOBET - </t>
+        </is>
+      </c>
+      <c r="H4" s="28" t="n"/>
+      <c r="I4" s="19" t="n"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="23" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="23" t="inlineStr">
+        <is>
+          <t>ACE</t>
+        </is>
+      </c>
+      <c r="B5" s="28" t="n"/>
+      <c r="C5" s="10" t="n"/>
+      <c r="D5" s="10" t="n"/>
+      <c r="E5" s="10" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="25" t="inlineStr">
+        <is>
+          <t>ACE</t>
+        </is>
+      </c>
+      <c r="H5" s="28" t="n"/>
+      <c r="I5" s="19" t="n"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="4" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOKER - </t>
+        </is>
+      </c>
+      <c r="B6" s="28" t="n"/>
+      <c r="C6" s="10" t="n"/>
+      <c r="D6" s="10" t="n"/>
+      <c r="E6" s="10" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="25" t="inlineStr">
+        <is>
+          <t>JOKER -</t>
+        </is>
+      </c>
+      <c r="H6" s="28" t="n"/>
+      <c r="I6" s="19" t="n"/>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="4" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GCLUB- </t>
+        </is>
+      </c>
+      <c r="B7" s="28" t="n"/>
+      <c r="C7" s="25" t="n"/>
+      <c r="D7" s="10" t="n"/>
+      <c r="E7" s="10" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="25" t="inlineStr">
+        <is>
+          <t>GCLUB</t>
+        </is>
+      </c>
+      <c r="H7" s="28" t="n"/>
+      <c r="I7" s="19" t="n"/>
+      <c r="J7" s="23" t="n"/>
+      <c r="K7" s="4" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="23" t="inlineStr">
+        <is>
+          <t>SCR</t>
+        </is>
+      </c>
+      <c r="B8" s="28" t="n"/>
+      <c r="C8" s="25" t="n"/>
+      <c r="D8" s="25" t="n"/>
+      <c r="E8" s="25" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="25" t="inlineStr">
+        <is>
+          <t>SCR</t>
+        </is>
+      </c>
+      <c r="H8" s="28" t="n"/>
+      <c r="I8" s="19" t="n"/>
+      <c r="J8" s="19" t="n"/>
+      <c r="K8" s="23" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LEAGUE88- </t>
+        </is>
+      </c>
+      <c r="B9" s="28" t="n"/>
+      <c r="C9" s="25" t="n"/>
+      <c r="D9" s="10" t="n"/>
+      <c r="E9" s="25" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="25" t="inlineStr">
+        <is>
+          <t>LEAGUE88</t>
+        </is>
+      </c>
+      <c r="H9" s="28" t="n"/>
+      <c r="I9" s="19" t="n"/>
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="23" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="23" t="inlineStr">
+        <is>
+          <t>LSM</t>
+        </is>
+      </c>
+      <c r="B10" s="28" t="n"/>
+      <c r="C10" s="25" t="n"/>
+      <c r="D10" s="10" t="n"/>
+      <c r="E10" s="25" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="25" t="inlineStr">
+        <is>
+          <t>LSM</t>
+        </is>
+      </c>
+      <c r="H10" s="28" t="n"/>
+      <c r="I10" s="19" t="n"/>
+      <c r="J10" s="5" t="n"/>
+      <c r="K10" s="23" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="23" t="inlineStr">
+        <is>
+          <t>SLOTCITI</t>
+        </is>
+      </c>
+      <c r="B11" s="28" t="n"/>
+      <c r="C11" s="25" t="n"/>
+      <c r="D11" s="10" t="n"/>
+      <c r="E11" s="25" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="25" t="inlineStr">
+        <is>
+          <t>SLOTCITI</t>
+        </is>
+      </c>
+      <c r="H11" s="28" t="n"/>
+      <c r="I11" s="19" t="n"/>
+      <c r="J11" s="5" t="n"/>
+      <c r="K11" s="23" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="23" t="inlineStr">
+        <is>
+          <t>UFABET</t>
+        </is>
+      </c>
+      <c r="B12" s="28" t="n"/>
+      <c r="C12" s="25" t="n"/>
+      <c r="D12" s="10" t="n"/>
+      <c r="E12" s="25" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="25" t="inlineStr">
+        <is>
+          <t>UFABET</t>
+        </is>
+      </c>
+      <c r="H12" s="28" t="n"/>
+      <c r="I12" s="19" t="n"/>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="23" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="23" t="inlineStr">
+        <is>
+          <t>LOTTO168</t>
+        </is>
+      </c>
+      <c r="B13" s="28" t="n"/>
+      <c r="C13" s="25" t="n"/>
+      <c r="D13" s="25" t="n"/>
+      <c r="E13" s="25" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="25" t="inlineStr">
+        <is>
+          <t>LOTTO168</t>
+        </is>
+      </c>
+      <c r="H13" s="28" t="n"/>
+      <c r="I13" s="23" t="n"/>
+      <c r="J13" s="23" t="n"/>
+      <c r="K13" s="23" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="23" t="inlineStr">
+        <is>
+          <t>AFB</t>
+        </is>
+      </c>
+      <c r="B14" s="28" t="n"/>
+      <c r="C14" s="10" t="n"/>
+      <c r="D14" s="25" t="n"/>
+      <c r="E14" s="25" t="n"/>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="25" t="inlineStr">
+        <is>
+          <t>AFB</t>
+        </is>
+      </c>
+      <c r="H14" s="28" t="n"/>
+      <c r="I14" s="23" t="n"/>
+      <c r="J14" s="4" t="n"/>
+      <c r="K14" s="23" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="23" t="inlineStr">
+        <is>
+          <t>GENTING</t>
+        </is>
+      </c>
+      <c r="B15" s="28" t="n"/>
+      <c r="C15" s="24" t="n"/>
+      <c r="D15" s="24" t="n"/>
+      <c r="E15" s="24" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="25" t="inlineStr">
+        <is>
+          <t>GENTING</t>
+        </is>
+      </c>
+      <c r="H15" s="28" t="n"/>
+      <c r="I15" s="23" t="n"/>
+      <c r="J15" s="23" t="n"/>
+      <c r="K15" s="24" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="23" t="inlineStr">
+        <is>
+          <t>HOLIDAY</t>
+        </is>
+      </c>
+      <c r="B16" s="28" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="25" t="inlineStr">
+        <is>
+          <t>HOLIDAY</t>
+        </is>
+      </c>
+      <c r="H16" s="28" t="n"/>
+      <c r="I16" s="23" t="n"/>
+      <c r="J16" s="23" t="n"/>
+      <c r="K16" s="24" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="23" t="inlineStr">
+        <is>
+          <t>MEGA88</t>
+        </is>
+      </c>
+      <c r="B17" s="28" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="10" t="n"/>
+      <c r="E17" s="25" t="n"/>
+      <c r="F17" s="8" t="n"/>
+      <c r="G17" s="25" t="inlineStr">
+        <is>
+          <t>MEGA88</t>
+        </is>
+      </c>
+      <c r="H17" s="28" t="n"/>
+      <c r="I17" s="23" t="n"/>
+      <c r="J17" s="4" t="n"/>
+      <c r="K17" s="23" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="23" t="inlineStr">
+        <is>
+          <t>SLOT-XE</t>
+        </is>
+      </c>
+      <c r="B18" s="28" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="10" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="8" t="n"/>
+      <c r="G18" s="23" t="inlineStr">
+        <is>
+          <t>SLOT-XE</t>
+        </is>
+      </c>
+      <c r="H18" s="28" t="n"/>
+      <c r="I18" s="23" t="n"/>
+      <c r="J18" s="4" t="n"/>
+      <c r="K18" s="24" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="23" t="inlineStr">
         <is>
           <t>HUAYCLUB</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
+      <c r="B19" s="28" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="23" t="inlineStr">
         <is>
           <t>HUAYCLUB</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="H19" s="28" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="I19" s="23" t="n"/>
+      <c r="J19" s="23" t="n"/>
+      <c r="K19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="19" t="inlineStr">
         <is>
           <t>ค่าใช้จ่าย</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="B20" s="29" t="n"/>
+      <c r="C20" s="9" t="n"/>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>ตัดบัญชี</t>
+        </is>
+      </c>
+      <c r="E20" s="11" t="n"/>
+      <c r="F20" s="1" t="n"/>
+      <c r="G20" s="19" t="inlineStr">
         <is>
           <t>ค่าใช้จ่าย</t>
         </is>
       </c>
+      <c r="H20" s="29" t="n"/>
+      <c r="I20" s="23" t="n"/>
+      <c r="J20" s="23" t="n"/>
+      <c r="K20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="19" t="inlineStr">
         <is>
           <t>Promotion</t>
         </is>
       </c>
+      <c r="B21" s="29" t="n"/>
+      <c r="C21" s="16" t="n"/>
+      <c r="D21" s="11" t="inlineStr">
+        <is>
+          <t>ยอดเสีย</t>
+        </is>
+      </c>
+      <c r="E21" s="11" t="n"/>
+      <c r="F21" s="1" t="n"/>
+      <c r="G21" s="25" t="n"/>
+      <c r="H21" s="28" t="n"/>
+      <c r="I21" s="23" t="n"/>
+      <c r="J21" s="23" t="n"/>
+      <c r="K21" s="2" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Promotion สมากชิกใหม่</t>
-        </is>
-      </c>
+      <c r="A22" s="19" t="inlineStr">
+        <is>
+          <t>Promotion สมาชิกใหม่</t>
+        </is>
+      </c>
+      <c r="B22" s="29" t="n"/>
+      <c r="C22" s="25" t="n"/>
+      <c r="D22" s="12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E22" s="25" t="n"/>
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="25" t="n"/>
+      <c r="H22" s="28" t="n"/>
+      <c r="I22" s="23" t="n"/>
+      <c r="J22" s="23" t="n"/>
+      <c r="K22" s="23" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="19" t="inlineStr">
         <is>
           <t>ยอดยกมา</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="B23" s="29" t="n"/>
+      <c r="C23" s="25" t="n"/>
+      <c r="D23" s="25" t="n"/>
+      <c r="E23" s="25" t="n"/>
+      <c r="F23" s="1" t="n"/>
+      <c r="G23" s="24" t="inlineStr">
         <is>
           <t>ยอดยกมา</t>
         </is>
       </c>
+      <c r="H23" s="29" t="n"/>
+      <c r="I23" s="23" t="n"/>
+      <c r="J23" s="23" t="n"/>
+      <c r="K23" s="23" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="23" t="n"/>
+      <c r="B24" s="28" t="n"/>
+      <c r="C24" s="25" t="n"/>
+      <c r="D24" s="25" t="n"/>
+      <c r="E24" s="25" t="n"/>
+      <c r="F24" s="1" t="n"/>
+      <c r="G24" s="25" t="n"/>
+      <c r="H24" s="28" t="n"/>
+      <c r="I24" s="23" t="n"/>
+      <c r="J24" s="23" t="n"/>
+      <c r="K24" s="23" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="23" t="n"/>
+      <c r="B25" s="28" t="n"/>
+      <c r="C25" s="25" t="n"/>
+      <c r="D25" s="25" t="n"/>
+      <c r="E25" s="25" t="n"/>
+      <c r="F25" s="1" t="n"/>
+      <c r="G25" s="25" t="n"/>
+      <c r="H25" s="28" t="n"/>
+      <c r="I25" s="23" t="n"/>
+      <c r="J25" s="23" t="n"/>
+      <c r="K25" s="23" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Total-ProFit</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Total-Company</t>
-        </is>
-      </c>
+      <c r="A26" s="19" t="inlineStr">
+        <is>
+          <t>Total - ProFIT</t>
+        </is>
+      </c>
+      <c r="B26" s="29" t="n"/>
+      <c r="C26" s="25" t="n"/>
+      <c r="D26" s="25" t="n"/>
+      <c r="E26" s="25" t="n"/>
+      <c r="F26" s="1" t="n"/>
+      <c r="G26" s="24" t="inlineStr">
+        <is>
+          <t>Total - ComPany</t>
+        </is>
+      </c>
+      <c r="H26" s="29" t="n"/>
+      <c r="I26" s="23" t="n"/>
+      <c r="J26" s="23" t="n"/>
+      <c r="K26" s="23" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="27" t="inlineStr">
         <is>
           <t>สรุปยอด</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="17" t="inlineStr">
         <is>
           <t>จำนวน</t>
         </is>
       </c>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="19" t="inlineStr">
         <is>
           <t>Office 60%</t>
         </is>
       </c>
+      <c r="B29" s="26" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="19" t="inlineStr">
         <is>
           <t>Partner 40%</t>
         </is>
       </c>
+      <c r="B30" s="26" t="n"/>
+      <c r="C30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
+      <c r="A31" s="19" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="B31" s="26" t="n"/>
+      <c r="C31" s="13" t="n"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="13" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="23" t="inlineStr">
+        <is>
+          <t>การเงิน</t>
+        </is>
+      </c>
+      <c r="B33" s="18" t="n"/>
+      <c r="C33" s="13" t="n"/>
+      <c r="D33" s="23" t="inlineStr">
+        <is>
+          <t>วิเคราะห์การเงิน</t>
+        </is>
+      </c>
+      <c r="E33" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.1" r="34" s="21">
+      <c r="A34" s="14" t="inlineStr">
+        <is>
+          <t>รวมรายได้</t>
+        </is>
+      </c>
+      <c r="B34" s="14" t="n"/>
+      <c r="C34" s="13" t="n"/>
+      <c r="D34" s="14" t="inlineStr">
+        <is>
+          <t>ถอน</t>
+        </is>
+      </c>
+      <c r="E34" s="23" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.1" r="35" s="21">
+      <c r="A35" s="14" t="inlineStr">
+        <is>
+          <t>โปรโมชั่น ยอดเสีย</t>
+        </is>
+      </c>
+      <c r="B35" s="14" t="n"/>
+      <c r="C35" s="13" t="n"/>
+      <c r="D35" s="14" t="inlineStr">
+        <is>
+          <t>เงินค้าง-เก่า</t>
+        </is>
+      </c>
+      <c r="E35" s="23" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.1" r="36" s="21">
+      <c r="A36" s="14" t="inlineStr">
+        <is>
+          <t>โปรโมชั่น สมาชิกใหม่</t>
+        </is>
+      </c>
+      <c r="B36" s="14" t="n"/>
+      <c r="D36" s="14" t="inlineStr">
+        <is>
+          <t>เงินค้าง-ใหม่</t>
+        </is>
+      </c>
+      <c r="E36" s="23" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.1" r="37" s="21">
+      <c r="A37" s="14" t="inlineStr">
+        <is>
+          <t>ค่าธรรมเนียมโอน</t>
+        </is>
+      </c>
+      <c r="B37" s="14" t="n"/>
+      <c r="D37" s="14" t="inlineStr">
+        <is>
+          <t>ค้างพอร์ตเก่า</t>
+        </is>
+      </c>
+      <c r="E37" s="23" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.1" r="38" s="21">
+      <c r="A38" s="14" t="inlineStr">
+        <is>
+          <t>รวมค่าใช้จ่าย</t>
+        </is>
+      </c>
+      <c r="B38" s="14" t="n"/>
+      <c r="D38" s="14" t="inlineStr">
+        <is>
+          <t>ค้างพอร์ตใหม่</t>
+        </is>
+      </c>
+      <c r="E38" s="23" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.1" r="39" s="21">
+      <c r="A39" s="14" t="n"/>
+      <c r="B39" s="14" t="n"/>
+      <c r="D39" s="14" t="inlineStr">
+        <is>
+          <t>คอมพานี</t>
+        </is>
+      </c>
+      <c r="E39" s="23" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.1" r="40" s="21">
+      <c r="A40" s="23" t="n"/>
+      <c r="B40" s="23" t="n"/>
+      <c r="D40" s="23" t="n"/>
+      <c r="E40" s="23" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.1" r="41" s="21">
+      <c r="A41" s="23" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B41" s="23">
+        <f>SUM(B34:B40)</f>
+        <v/>
+      </c>
+      <c r="D41" s="23" t="n"/>
+      <c r="E41" s="23">
+        <f>SUM(E34:E40)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="42" s="21">
+      <c r="D42" s="23" t="inlineStr">
+        <is>
+          <t>คลาดเคลือน</t>
+        </is>
+      </c>
+      <c r="E42" s="23" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="1200" orientation="portrait" paperSize="9" verticalDpi="1200"/>
 </worksheet>
 </file>
--- a/output/Report.xlsx
+++ b/output/Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="850" visibility="visible" windowHeight="7875" windowWidth="15375" xWindow="2295" yWindow="2295"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="850" visibility="visible" windowHeight="15585" windowWidth="17910" xWindow="345" yWindow="15"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,19 +15,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt formatCode="yyyy\-mm\-dd" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="165"/>
   </numFmts>
   <fonts count="5">
     <font>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
@@ -35,20 +36,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
       <color rgb="FFFF0000"/>
@@ -116,30 +117,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -164,7 +150,6 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -178,9 +163,24 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="ปกติ" xfId="0"/>
@@ -517,604 +517,602 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleSheetLayoutView="90">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="21" width="22.625"/>
-    <col customWidth="1" max="2" min="2" style="21" width="12.75"/>
-    <col customWidth="1" max="3" min="3" style="21" width="5.25"/>
-    <col customWidth="1" max="4" min="4" style="21" width="13.375"/>
-    <col customWidth="1" max="5" min="5" style="21" width="14.75"/>
-    <col customWidth="1" max="6" min="6" style="21" width="10.625"/>
-    <col customWidth="1" max="7" min="7" style="21" width="17.875"/>
-    <col customWidth="1" max="8" min="8" style="21" width="12"/>
-    <col customWidth="1" max="9" min="9" style="21" width="5.875"/>
-    <col customWidth="1" max="10" min="10" style="21" width="10.625"/>
-    <col customWidth="1" max="11" min="11" style="21" width="13.125"/>
-    <col customWidth="1" max="13" min="13" style="21" width="7.625"/>
-    <col customWidth="1" max="14" min="14" style="21" width="11.125"/>
+    <col customWidth="1" max="1" min="1" style="14" width="22.5703125"/>
+    <col customWidth="1" max="2" min="2" style="14" width="12.7109375"/>
+    <col customWidth="1" max="3" min="3" style="14" width="8.5703125"/>
+    <col customWidth="1" max="4" min="4" style="14" width="13.42578125"/>
+    <col customWidth="1" max="5" min="5" style="14" width="14.7109375"/>
+    <col customWidth="1" max="6" min="6" style="14" width="10.5703125"/>
+    <col customWidth="1" max="7" min="7" style="14" width="17.85546875"/>
+    <col customWidth="1" max="8" min="8" style="14" width="12"/>
+    <col customWidth="1" max="9" min="9" style="14" width="5.85546875"/>
+    <col customWidth="1" max="10" min="10" style="14" width="10.5703125"/>
+    <col customWidth="1" max="11" min="11" style="14" width="13.140625"/>
+    <col customWidth="1" max="13" min="13" style="14" width="7.5703125"/>
+    <col customWidth="1" max="14" min="14" style="14" width="11.140625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="inlineStr">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>SBOBETCAFE</t>
         </is>
       </c>
-      <c r="G1" s="20" t="inlineStr">
+      <c r="G1" s="13" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="inlineStr">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>ProFit</t>
         </is>
       </c>
-      <c r="B2" s="31" t="n">
+      <c r="B2" s="22" t="n">
         <v>43885</v>
       </c>
-      <c r="C2" s="23" t="n"/>
-      <c r="D2" s="14" t="inlineStr">
+      <c r="C2" s="25" t="n"/>
+      <c r="D2" s="7" t="inlineStr">
         <is>
           <t>คำนวณ</t>
         </is>
       </c>
-      <c r="E2" s="14" t="inlineStr">
+      <c r="E2" s="7" t="inlineStr">
         <is>
           <t>คำนวณ</t>
         </is>
       </c>
-      <c r="G2" s="19" t="inlineStr">
+      <c r="G2" s="12" t="inlineStr">
         <is>
           <t>ProFit</t>
         </is>
       </c>
-      <c r="H2" s="23" t="inlineStr">
-        <is>
-          <t>03-09-02-63</t>
-        </is>
-      </c>
-      <c r="I2" s="19" t="n"/>
-      <c r="J2" s="14" t="inlineStr">
+      <c r="H2" s="30" t="n">
+        <v>43885</v>
+      </c>
+      <c r="I2" s="12" t="n"/>
+      <c r="J2" s="7" t="inlineStr">
         <is>
           <t>คำนวณ</t>
         </is>
       </c>
-      <c r="K2" s="14" t="inlineStr">
+      <c r="K2" s="7" t="inlineStr">
         <is>
           <t>คำนวณ</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>Web - User</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>จำนวน</t>
         </is>
       </c>
-      <c r="C3" s="19" t="inlineStr">
+      <c r="C3" s="12" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="D3" s="23" t="n"/>
-      <c r="E3" s="23" t="n"/>
-      <c r="G3" s="19" t="inlineStr">
+      <c r="D3" s="25" t="n"/>
+      <c r="E3" s="25" t="n"/>
+      <c r="G3" s="12" t="inlineStr">
         <is>
           <t>Web - User</t>
         </is>
       </c>
-      <c r="H3" s="15" t="inlineStr">
+      <c r="H3" s="8" t="inlineStr">
         <is>
           <t>จำนวน</t>
         </is>
       </c>
-      <c r="I3" s="19" t="inlineStr">
+      <c r="I3" s="12" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="J3" s="19" t="n"/>
-      <c r="K3" s="23" t="n"/>
+      <c r="J3" s="25" t="n"/>
+      <c r="K3" s="25" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="23" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">SBOBET - </t>
         </is>
       </c>
-      <c r="B4" s="28" t="n"/>
-      <c r="C4" s="10" t="n"/>
-      <c r="D4" s="10" t="n"/>
-      <c r="E4" s="25" t="n"/>
+      <c r="B4" s="20" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="17" t="n"/>
       <c r="F4" s="1" t="n"/>
-      <c r="G4" s="25" t="inlineStr">
+      <c r="G4" s="17" t="inlineStr">
         <is>
           <t xml:space="preserve">SBOBET - </t>
         </is>
       </c>
-      <c r="H4" s="28" t="n"/>
-      <c r="I4" s="19" t="n"/>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="23" t="n"/>
+      <c r="H4" s="20" t="n"/>
+      <c r="I4" s="25" t="n"/>
+      <c r="J4" s="26" t="n"/>
+      <c r="K4" s="25" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="23" t="inlineStr">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>ACE</t>
         </is>
       </c>
-      <c r="B5" s="28" t="n"/>
-      <c r="C5" s="10" t="n"/>
-      <c r="D5" s="10" t="n"/>
-      <c r="E5" s="10" t="n"/>
+      <c r="B5" s="20" t="n"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
       <c r="F5" s="1" t="n"/>
-      <c r="G5" s="25" t="inlineStr">
+      <c r="G5" s="17" t="inlineStr">
         <is>
           <t>ACE</t>
         </is>
       </c>
-      <c r="H5" s="28" t="n"/>
-      <c r="I5" s="19" t="n"/>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="4" t="n"/>
+      <c r="H5" s="20" t="n"/>
+      <c r="I5" s="25" t="n"/>
+      <c r="J5" s="26" t="n"/>
+      <c r="K5" s="26" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="23" t="inlineStr">
+      <c r="A6" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">JOKER - </t>
         </is>
       </c>
-      <c r="B6" s="28" t="n"/>
-      <c r="C6" s="10" t="n"/>
-      <c r="D6" s="10" t="n"/>
-      <c r="E6" s="10" t="n"/>
+      <c r="B6" s="20" t="n"/>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
       <c r="F6" s="1" t="n"/>
-      <c r="G6" s="25" t="inlineStr">
+      <c r="G6" s="17" t="inlineStr">
         <is>
           <t>JOKER -</t>
         </is>
       </c>
-      <c r="H6" s="28" t="n"/>
-      <c r="I6" s="19" t="n"/>
-      <c r="J6" s="5" t="n"/>
-      <c r="K6" s="4" t="n"/>
+      <c r="H6" s="20" t="n"/>
+      <c r="I6" s="25" t="n"/>
+      <c r="J6" s="26" t="n"/>
+      <c r="K6" s="26" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="23" t="inlineStr">
+      <c r="A7" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">GCLUB- </t>
         </is>
       </c>
-      <c r="B7" s="28" t="n"/>
-      <c r="C7" s="25" t="n"/>
-      <c r="D7" s="10" t="n"/>
-      <c r="E7" s="10" t="n"/>
+      <c r="B7" s="20" t="n"/>
+      <c r="C7" s="17" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
       <c r="F7" s="1" t="n"/>
-      <c r="G7" s="25" t="inlineStr">
+      <c r="G7" s="17" t="inlineStr">
         <is>
           <t>GCLUB</t>
         </is>
       </c>
-      <c r="H7" s="28" t="n"/>
-      <c r="I7" s="19" t="n"/>
-      <c r="J7" s="23" t="n"/>
-      <c r="K7" s="4" t="n"/>
+      <c r="H7" s="20" t="n"/>
+      <c r="I7" s="25" t="n"/>
+      <c r="J7" s="25" t="n"/>
+      <c r="K7" s="26" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="23" t="inlineStr">
+      <c r="A8" s="25" t="inlineStr">
         <is>
           <t>SCR</t>
         </is>
       </c>
-      <c r="B8" s="28" t="n"/>
-      <c r="C8" s="25" t="n"/>
-      <c r="D8" s="25" t="n"/>
-      <c r="E8" s="25" t="n"/>
+      <c r="B8" s="20" t="n"/>
+      <c r="C8" s="17" t="n"/>
+      <c r="D8" s="17" t="n"/>
+      <c r="E8" s="17" t="n"/>
       <c r="F8" s="1" t="n"/>
-      <c r="G8" s="25" t="inlineStr">
+      <c r="G8" s="17" t="inlineStr">
         <is>
           <t>SCR</t>
         </is>
       </c>
-      <c r="H8" s="28" t="n"/>
-      <c r="I8" s="19" t="n"/>
-      <c r="J8" s="19" t="n"/>
-      <c r="K8" s="23" t="n"/>
+      <c r="H8" s="20" t="n"/>
+      <c r="I8" s="25" t="n"/>
+      <c r="J8" s="25" t="n"/>
+      <c r="K8" s="25" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="23" t="inlineStr">
+      <c r="A9" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">LEAGUE88- </t>
         </is>
       </c>
-      <c r="B9" s="28" t="n"/>
-      <c r="C9" s="25" t="n"/>
-      <c r="D9" s="10" t="n"/>
-      <c r="E9" s="25" t="n"/>
+      <c r="B9" s="20" t="n"/>
+      <c r="C9" s="17" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="17" t="n"/>
       <c r="F9" s="1" t="n"/>
-      <c r="G9" s="25" t="inlineStr">
+      <c r="G9" s="17" t="inlineStr">
         <is>
           <t>LEAGUE88</t>
         </is>
       </c>
-      <c r="H9" s="28" t="n"/>
-      <c r="I9" s="19" t="n"/>
-      <c r="J9" s="5" t="n"/>
-      <c r="K9" s="23" t="n"/>
+      <c r="H9" s="20" t="n"/>
+      <c r="I9" s="25" t="n"/>
+      <c r="J9" s="26" t="n"/>
+      <c r="K9" s="25" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="inlineStr">
+      <c r="A10" s="25" t="inlineStr">
         <is>
           <t>LSM</t>
         </is>
       </c>
-      <c r="B10" s="28" t="n"/>
-      <c r="C10" s="25" t="n"/>
-      <c r="D10" s="10" t="n"/>
-      <c r="E10" s="25" t="n"/>
+      <c r="B10" s="20" t="n"/>
+      <c r="C10" s="17" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="17" t="n"/>
       <c r="F10" s="1" t="n"/>
-      <c r="G10" s="25" t="inlineStr">
+      <c r="G10" s="17" t="inlineStr">
         <is>
           <t>LSM</t>
         </is>
       </c>
-      <c r="H10" s="28" t="n"/>
-      <c r="I10" s="19" t="n"/>
-      <c r="J10" s="5" t="n"/>
-      <c r="K10" s="23" t="n"/>
+      <c r="H10" s="20" t="n"/>
+      <c r="I10" s="25" t="n"/>
+      <c r="J10" s="26" t="n"/>
+      <c r="K10" s="25" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="23" t="inlineStr">
+      <c r="A11" s="25" t="inlineStr">
         <is>
           <t>SLOTCITI</t>
         </is>
       </c>
-      <c r="B11" s="28" t="n"/>
-      <c r="C11" s="25" t="n"/>
-      <c r="D11" s="10" t="n"/>
-      <c r="E11" s="25" t="n"/>
+      <c r="B11" s="20" t="n"/>
+      <c r="C11" s="17" t="n"/>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="17" t="n"/>
       <c r="F11" s="1" t="n"/>
-      <c r="G11" s="25" t="inlineStr">
+      <c r="G11" s="17" t="inlineStr">
         <is>
           <t>SLOTCITI</t>
         </is>
       </c>
-      <c r="H11" s="28" t="n"/>
-      <c r="I11" s="19" t="n"/>
-      <c r="J11" s="5" t="n"/>
-      <c r="K11" s="23" t="n"/>
+      <c r="H11" s="20" t="n"/>
+      <c r="I11" s="25" t="n"/>
+      <c r="J11" s="26" t="n"/>
+      <c r="K11" s="25" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="23" t="inlineStr">
+      <c r="A12" s="25" t="inlineStr">
         <is>
           <t>UFABET</t>
         </is>
       </c>
-      <c r="B12" s="28" t="n"/>
-      <c r="C12" s="25" t="n"/>
-      <c r="D12" s="10" t="n"/>
-      <c r="E12" s="25" t="n"/>
+      <c r="B12" s="20" t="n"/>
+      <c r="C12" s="17" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="17" t="n"/>
       <c r="F12" s="1" t="n"/>
-      <c r="G12" s="25" t="inlineStr">
+      <c r="G12" s="17" t="inlineStr">
         <is>
           <t>UFABET</t>
         </is>
       </c>
-      <c r="H12" s="28" t="n"/>
-      <c r="I12" s="19" t="n"/>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="23" t="n"/>
+      <c r="H12" s="20" t="n"/>
+      <c r="I12" s="25" t="n"/>
+      <c r="J12" s="26" t="n"/>
+      <c r="K12" s="25" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="inlineStr">
+      <c r="A13" s="25" t="inlineStr">
         <is>
           <t>LOTTO168</t>
         </is>
       </c>
-      <c r="B13" s="28" t="n"/>
-      <c r="C13" s="25" t="n"/>
-      <c r="D13" s="25" t="n"/>
-      <c r="E13" s="25" t="n"/>
+      <c r="B13" s="20" t="n"/>
+      <c r="C13" s="17" t="n"/>
+      <c r="D13" s="17" t="n"/>
+      <c r="E13" s="17" t="n"/>
       <c r="F13" s="1" t="n"/>
-      <c r="G13" s="25" t="inlineStr">
+      <c r="G13" s="17" t="inlineStr">
         <is>
           <t>LOTTO168</t>
         </is>
       </c>
-      <c r="H13" s="28" t="n"/>
-      <c r="I13" s="23" t="n"/>
-      <c r="J13" s="23" t="n"/>
-      <c r="K13" s="23" t="n"/>
+      <c r="H13" s="20" t="n"/>
+      <c r="I13" s="25" t="n"/>
+      <c r="J13" s="25" t="n"/>
+      <c r="K13" s="25" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="inlineStr">
+      <c r="A14" s="25" t="inlineStr">
         <is>
           <t>AFB</t>
         </is>
       </c>
-      <c r="B14" s="28" t="n"/>
-      <c r="C14" s="10" t="n"/>
-      <c r="D14" s="25" t="n"/>
-      <c r="E14" s="25" t="n"/>
+      <c r="B14" s="20" t="n"/>
+      <c r="C14" s="4" t="n"/>
+      <c r="D14" s="17" t="n"/>
+      <c r="E14" s="17" t="n"/>
       <c r="F14" s="1" t="n"/>
-      <c r="G14" s="25" t="inlineStr">
+      <c r="G14" s="17" t="inlineStr">
         <is>
           <t>AFB</t>
         </is>
       </c>
-      <c r="H14" s="28" t="n"/>
-      <c r="I14" s="23" t="n"/>
-      <c r="J14" s="4" t="n"/>
-      <c r="K14" s="23" t="n"/>
+      <c r="H14" s="20" t="n"/>
+      <c r="I14" s="25" t="n"/>
+      <c r="J14" s="26" t="n"/>
+      <c r="K14" s="25" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="23" t="inlineStr">
+      <c r="A15" s="25" t="inlineStr">
         <is>
           <t>GENTING</t>
         </is>
       </c>
-      <c r="B15" s="28" t="n"/>
-      <c r="C15" s="24" t="n"/>
-      <c r="D15" s="24" t="n"/>
-      <c r="E15" s="24" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="25" t="inlineStr">
+      <c r="B15" s="20" t="n"/>
+      <c r="C15" s="17" t="n"/>
+      <c r="D15" s="17" t="n"/>
+      <c r="E15" s="17" t="n"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="17" t="inlineStr">
         <is>
           <t>GENTING</t>
         </is>
       </c>
-      <c r="H15" s="28" t="n"/>
-      <c r="I15" s="23" t="n"/>
-      <c r="J15" s="23" t="n"/>
-      <c r="K15" s="24" t="n"/>
+      <c r="H15" s="20" t="n"/>
+      <c r="I15" s="25" t="n"/>
+      <c r="J15" s="25" t="n"/>
+      <c r="K15" s="17" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="23" t="inlineStr">
+      <c r="A16" s="25" t="inlineStr">
         <is>
           <t>HOLIDAY</t>
         </is>
       </c>
-      <c r="B16" s="28" t="n"/>
-      <c r="C16" s="6" t="n"/>
-      <c r="D16" s="6" t="n"/>
-      <c r="E16" s="6" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="25" t="inlineStr">
+      <c r="B16" s="20" t="n"/>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="17" t="inlineStr">
         <is>
           <t>HOLIDAY</t>
         </is>
       </c>
-      <c r="H16" s="28" t="n"/>
-      <c r="I16" s="23" t="n"/>
-      <c r="J16" s="23" t="n"/>
-      <c r="K16" s="24" t="n"/>
+      <c r="H16" s="20" t="n"/>
+      <c r="I16" s="25" t="n"/>
+      <c r="J16" s="25" t="n"/>
+      <c r="K16" s="17" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="23" t="inlineStr">
+      <c r="A17" s="25" t="inlineStr">
         <is>
           <t>MEGA88</t>
         </is>
       </c>
-      <c r="B17" s="28" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="10" t="n"/>
-      <c r="E17" s="25" t="n"/>
-      <c r="F17" s="8" t="n"/>
-      <c r="G17" s="25" t="inlineStr">
+      <c r="B17" s="20" t="n"/>
+      <c r="C17" s="23" t="n"/>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="17" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="17" t="inlineStr">
         <is>
           <t>MEGA88</t>
         </is>
       </c>
-      <c r="H17" s="28" t="n"/>
-      <c r="I17" s="23" t="n"/>
-      <c r="J17" s="4" t="n"/>
-      <c r="K17" s="23" t="n"/>
+      <c r="H17" s="20" t="n"/>
+      <c r="I17" s="25" t="n"/>
+      <c r="J17" s="26" t="n"/>
+      <c r="K17" s="25" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="23" t="inlineStr">
+      <c r="A18" s="25" t="inlineStr">
         <is>
           <t>SLOT-XE</t>
         </is>
       </c>
-      <c r="B18" s="28" t="n"/>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="10" t="n"/>
-      <c r="E18" s="7" t="n"/>
-      <c r="F18" s="8" t="n"/>
-      <c r="G18" s="23" t="inlineStr">
+      <c r="B18" s="20" t="n"/>
+      <c r="C18" s="23" t="n"/>
+      <c r="D18" s="4" t="n"/>
+      <c r="E18" s="23" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="25" t="inlineStr">
         <is>
           <t>SLOT-XE</t>
         </is>
       </c>
-      <c r="H18" s="28" t="n"/>
-      <c r="I18" s="23" t="n"/>
-      <c r="J18" s="4" t="n"/>
-      <c r="K18" s="24" t="n"/>
+      <c r="H18" s="20" t="n"/>
+      <c r="I18" s="25" t="n"/>
+      <c r="J18" s="26" t="n"/>
+      <c r="K18" s="17" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="23" t="inlineStr">
+      <c r="A19" s="25" t="inlineStr">
         <is>
           <t>HUAYCLUB</t>
         </is>
       </c>
-      <c r="B19" s="28" t="inlineStr">
+      <c r="B19" s="20" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>ZJJJCG8</t>
         </is>
       </c>
-      <c r="D19" s="6" t="n"/>
-      <c r="E19" s="6" t="n"/>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="23" t="inlineStr">
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="4" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="25" t="inlineStr">
         <is>
           <t>HUAYCLUB</t>
         </is>
       </c>
-      <c r="H19" s="28" t="inlineStr">
+      <c r="H19" s="20" t="inlineStr">
         <is>
           <t>450.00</t>
         </is>
       </c>
-      <c r="I19" s="23" t="n"/>
-      <c r="J19" s="23" t="n"/>
-      <c r="K19" s="6" t="n"/>
+      <c r="I19" s="25" t="n"/>
+      <c r="J19" s="25" t="n"/>
+      <c r="K19" s="4" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="inlineStr">
+      <c r="A20" s="12" t="inlineStr">
         <is>
           <t>ค่าใช้จ่าย</t>
         </is>
       </c>
-      <c r="B20" s="29" t="n"/>
-      <c r="C20" s="9" t="n"/>
-      <c r="D20" s="11" t="inlineStr">
+      <c r="B20" s="21" t="n"/>
+      <c r="C20" s="24" t="n"/>
+      <c r="D20" s="28" t="inlineStr">
         <is>
           <t>ตัดบัญชี</t>
         </is>
       </c>
-      <c r="E20" s="11" t="n"/>
+      <c r="E20" s="5" t="n"/>
       <c r="F20" s="1" t="n"/>
-      <c r="G20" s="19" t="inlineStr">
+      <c r="G20" s="12" t="inlineStr">
         <is>
           <t>ค่าใช้จ่าย</t>
         </is>
       </c>
-      <c r="H20" s="29" t="n"/>
-      <c r="I20" s="23" t="n"/>
-      <c r="J20" s="23" t="n"/>
-      <c r="K20" s="2" t="n"/>
+      <c r="H20" s="21" t="n"/>
+      <c r="I20" s="25" t="n"/>
+      <c r="J20" s="25" t="n"/>
+      <c r="K20" s="27" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="inlineStr">
+      <c r="A21" s="12" t="inlineStr">
         <is>
           <t>Promotion</t>
         </is>
       </c>
-      <c r="B21" s="29" t="n"/>
-      <c r="C21" s="16" t="n"/>
-      <c r="D21" s="11" t="inlineStr">
+      <c r="B21" s="21" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="28" t="inlineStr">
         <is>
           <t>ยอดเสีย</t>
         </is>
       </c>
-      <c r="E21" s="11" t="n"/>
+      <c r="E21" s="5" t="n"/>
       <c r="F21" s="1" t="n"/>
-      <c r="G21" s="25" t="n"/>
-      <c r="H21" s="28" t="n"/>
-      <c r="I21" s="23" t="n"/>
-      <c r="J21" s="23" t="n"/>
-      <c r="K21" s="2" t="n"/>
+      <c r="G21" s="17" t="n"/>
+      <c r="H21" s="20" t="n"/>
+      <c r="I21" s="25" t="n"/>
+      <c r="J21" s="25" t="n"/>
+      <c r="K21" s="27" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="inlineStr">
+      <c r="A22" s="12" t="inlineStr">
         <is>
           <t>Promotion สมาชิกใหม่</t>
         </is>
       </c>
-      <c r="B22" s="29" t="n"/>
-      <c r="C22" s="25" t="n"/>
-      <c r="D22" s="12" t="n">
+      <c r="B22" s="21" t="n"/>
+      <c r="C22" s="17" t="n"/>
+      <c r="D22" s="29" t="n">
         <v>1.2</v>
       </c>
-      <c r="E22" s="25" t="n"/>
+      <c r="E22" s="17" t="n"/>
       <c r="F22" s="1" t="n"/>
-      <c r="G22" s="25" t="n"/>
-      <c r="H22" s="28" t="n"/>
-      <c r="I22" s="23" t="n"/>
-      <c r="J22" s="23" t="n"/>
-      <c r="K22" s="23" t="n"/>
+      <c r="G22" s="17" t="n"/>
+      <c r="H22" s="20" t="n"/>
+      <c r="I22" s="25" t="n"/>
+      <c r="J22" s="25" t="n"/>
+      <c r="K22" s="25" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="19" t="inlineStr">
+      <c r="A23" s="12" t="inlineStr">
         <is>
           <t>ยอดยกมา</t>
         </is>
       </c>
-      <c r="B23" s="29" t="n"/>
-      <c r="C23" s="25" t="n"/>
-      <c r="D23" s="25" t="n"/>
-      <c r="E23" s="25" t="n"/>
+      <c r="B23" s="21" t="n"/>
+      <c r="C23" s="17" t="n"/>
+      <c r="D23" s="17" t="n"/>
+      <c r="E23" s="17" t="n"/>
       <c r="F23" s="1" t="n"/>
-      <c r="G23" s="24" t="inlineStr">
+      <c r="G23" s="16" t="inlineStr">
         <is>
           <t>ยอดยกมา</t>
         </is>
       </c>
-      <c r="H23" s="29" t="n"/>
-      <c r="I23" s="23" t="n"/>
-      <c r="J23" s="23" t="n"/>
-      <c r="K23" s="23" t="n"/>
+      <c r="H23" s="21" t="n"/>
+      <c r="I23" s="25" t="n"/>
+      <c r="J23" s="25" t="n"/>
+      <c r="K23" s="25" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="23" t="n"/>
-      <c r="B24" s="28" t="n"/>
-      <c r="C24" s="25" t="n"/>
-      <c r="D24" s="25" t="n"/>
-      <c r="E24" s="25" t="n"/>
+      <c r="A24" s="25" t="n"/>
+      <c r="B24" s="20" t="n"/>
+      <c r="C24" s="17" t="n"/>
+      <c r="D24" s="17" t="n"/>
+      <c r="E24" s="17" t="n"/>
       <c r="F24" s="1" t="n"/>
-      <c r="G24" s="25" t="n"/>
-      <c r="H24" s="28" t="n"/>
-      <c r="I24" s="23" t="n"/>
-      <c r="J24" s="23" t="n"/>
-      <c r="K24" s="23" t="n"/>
+      <c r="G24" s="17" t="n"/>
+      <c r="H24" s="20" t="n"/>
+      <c r="I24" s="25" t="n"/>
+      <c r="J24" s="25" t="n"/>
+      <c r="K24" s="25" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="23" t="n"/>
-      <c r="B25" s="28" t="n"/>
-      <c r="C25" s="25" t="n"/>
-      <c r="D25" s="25" t="n"/>
-      <c r="E25" s="25" t="n"/>
+      <c r="A25" s="25" t="n"/>
+      <c r="B25" s="20" t="n"/>
+      <c r="C25" s="17" t="n"/>
+      <c r="D25" s="17" t="n"/>
+      <c r="E25" s="17" t="n"/>
       <c r="F25" s="1" t="n"/>
-      <c r="G25" s="25" t="n"/>
-      <c r="H25" s="28" t="n"/>
-      <c r="I25" s="23" t="n"/>
-      <c r="J25" s="23" t="n"/>
-      <c r="K25" s="23" t="n"/>
+      <c r="G25" s="17" t="n"/>
+      <c r="H25" s="20" t="n"/>
+      <c r="I25" s="25" t="n"/>
+      <c r="J25" s="25" t="n"/>
+      <c r="K25" s="25" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="19" t="inlineStr">
+      <c r="A26" s="12" t="inlineStr">
         <is>
           <t>Total - ProFIT</t>
         </is>
       </c>
-      <c r="B26" s="29" t="n"/>
-      <c r="C26" s="25" t="n"/>
-      <c r="D26" s="25" t="n"/>
-      <c r="E26" s="25" t="n"/>
+      <c r="B26" s="21" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="17" t="n"/>
+      <c r="E26" s="17" t="n"/>
       <c r="F26" s="1" t="n"/>
-      <c r="G26" s="24" t="inlineStr">
+      <c r="G26" s="16" t="inlineStr">
         <is>
           <t>Total - ComPany</t>
         </is>
       </c>
-      <c r="H26" s="29" t="n"/>
-      <c r="I26" s="23" t="n"/>
-      <c r="J26" s="23" t="n"/>
-      <c r="K26" s="23" t="n"/>
+      <c r="H26" s="21" t="n"/>
+      <c r="I26" s="25" t="n"/>
+      <c r="J26" s="25" t="n"/>
+      <c r="K26" s="25" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="27" t="inlineStr">
+      <c r="A28" s="19" t="inlineStr">
         <is>
           <t>สรุปยอด</t>
         </is>
       </c>
-      <c r="B28" s="17" t="inlineStr">
+      <c r="B28" s="10" t="inlineStr">
         <is>
           <t>จำนวน</t>
         </is>
@@ -1123,160 +1121,160 @@
       <c r="D28" s="1" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="inlineStr">
+      <c r="A29" s="12" t="inlineStr">
         <is>
           <t>Office 60%</t>
         </is>
       </c>
-      <c r="B29" s="26" t="n"/>
+      <c r="B29" s="18" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="inlineStr">
+      <c r="A30" s="12" t="inlineStr">
         <is>
           <t>Partner 40%</t>
         </is>
       </c>
-      <c r="B30" s="26" t="n"/>
-      <c r="C30" s="13" t="n"/>
+      <c r="B30" s="18" t="n"/>
+      <c r="C30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="19" t="inlineStr">
+      <c r="A31" s="12" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="B31" s="26" t="n"/>
-      <c r="C31" s="13" t="n"/>
+      <c r="B31" s="18" t="n"/>
+      <c r="C31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="13" t="n"/>
+      <c r="C32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="23" t="inlineStr">
+      <c r="A33" s="25" t="inlineStr">
         <is>
           <t>การเงิน</t>
         </is>
       </c>
-      <c r="B33" s="18" t="n"/>
-      <c r="C33" s="13" t="n"/>
-      <c r="D33" s="23" t="inlineStr">
+      <c r="B33" s="11" t="n"/>
+      <c r="C33" s="6" t="n"/>
+      <c r="D33" s="25" t="inlineStr">
         <is>
           <t>วิเคราะห์การเงิน</t>
         </is>
       </c>
-      <c r="E33" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="17.1" r="34" s="21">
-      <c r="A34" s="14" t="inlineStr">
+      <c r="E33" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.1" r="34" s="14">
+      <c r="A34" s="7" t="inlineStr">
         <is>
           <t>รวมรายได้</t>
         </is>
       </c>
-      <c r="B34" s="14" t="n"/>
-      <c r="C34" s="13" t="n"/>
-      <c r="D34" s="14" t="inlineStr">
+      <c r="B34" s="7" t="n"/>
+      <c r="C34" s="6" t="n"/>
+      <c r="D34" s="7" t="inlineStr">
         <is>
           <t>ถอน</t>
         </is>
       </c>
-      <c r="E34" s="23" t="n"/>
-    </row>
-    <row customHeight="1" ht="17.1" r="35" s="21">
-      <c r="A35" s="14" t="inlineStr">
+      <c r="E34" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.1" r="35" s="14">
+      <c r="A35" s="7" t="inlineStr">
         <is>
           <t>โปรโมชั่น ยอดเสีย</t>
         </is>
       </c>
-      <c r="B35" s="14" t="n"/>
-      <c r="C35" s="13" t="n"/>
-      <c r="D35" s="14" t="inlineStr">
+      <c r="B35" s="7" t="n"/>
+      <c r="C35" s="6" t="n"/>
+      <c r="D35" s="7" t="inlineStr">
         <is>
           <t>เงินค้าง-เก่า</t>
         </is>
       </c>
-      <c r="E35" s="23" t="n"/>
-    </row>
-    <row customHeight="1" ht="17.1" r="36" s="21">
-      <c r="A36" s="14" t="inlineStr">
+      <c r="E35" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.1" r="36" s="14">
+      <c r="A36" s="7" t="inlineStr">
         <is>
           <t>โปรโมชั่น สมาชิกใหม่</t>
         </is>
       </c>
-      <c r="B36" s="14" t="n"/>
-      <c r="D36" s="14" t="inlineStr">
+      <c r="B36" s="7" t="n"/>
+      <c r="D36" s="7" t="inlineStr">
         <is>
           <t>เงินค้าง-ใหม่</t>
         </is>
       </c>
-      <c r="E36" s="23" t="n"/>
-    </row>
-    <row customHeight="1" ht="17.1" r="37" s="21">
-      <c r="A37" s="14" t="inlineStr">
+      <c r="E36" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.1" r="37" s="14">
+      <c r="A37" s="7" t="inlineStr">
         <is>
           <t>ค่าธรรมเนียมโอน</t>
         </is>
       </c>
-      <c r="B37" s="14" t="n"/>
-      <c r="D37" s="14" t="inlineStr">
+      <c r="B37" s="7" t="n"/>
+      <c r="D37" s="7" t="inlineStr">
         <is>
           <t>ค้างพอร์ตเก่า</t>
         </is>
       </c>
-      <c r="E37" s="23" t="n"/>
-    </row>
-    <row customHeight="1" ht="17.1" r="38" s="21">
-      <c r="A38" s="14" t="inlineStr">
+      <c r="E37" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.1" r="38" s="14">
+      <c r="A38" s="7" t="inlineStr">
         <is>
           <t>รวมค่าใช้จ่าย</t>
         </is>
       </c>
-      <c r="B38" s="14" t="n"/>
-      <c r="D38" s="14" t="inlineStr">
+      <c r="B38" s="7" t="n"/>
+      <c r="D38" s="7" t="inlineStr">
         <is>
           <t>ค้างพอร์ตใหม่</t>
         </is>
       </c>
-      <c r="E38" s="23" t="n"/>
-    </row>
-    <row customHeight="1" ht="17.1" r="39" s="21">
-      <c r="A39" s="14" t="n"/>
-      <c r="B39" s="14" t="n"/>
-      <c r="D39" s="14" t="inlineStr">
+      <c r="E38" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.1" r="39" s="14">
+      <c r="A39" s="7" t="n"/>
+      <c r="B39" s="7" t="n"/>
+      <c r="D39" s="7" t="inlineStr">
         <is>
           <t>คอมพานี</t>
         </is>
       </c>
-      <c r="E39" s="23" t="n"/>
-    </row>
-    <row customHeight="1" ht="17.1" r="40" s="21">
-      <c r="A40" s="23" t="n"/>
-      <c r="B40" s="23" t="n"/>
-      <c r="D40" s="23" t="n"/>
-      <c r="E40" s="23" t="n"/>
-    </row>
-    <row customHeight="1" ht="17.1" r="41" s="21">
-      <c r="A41" s="23" t="inlineStr">
+      <c r="E39" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.1" r="40" s="14">
+      <c r="A40" s="25" t="n"/>
+      <c r="B40" s="25" t="n"/>
+      <c r="D40" s="25" t="n"/>
+      <c r="E40" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.1" r="41" s="14">
+      <c r="A41" s="25" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="25">
         <f>SUM(B34:B40)</f>
         <v/>
       </c>
-      <c r="D41" s="23" t="n"/>
-      <c r="E41" s="23">
+      <c r="D41" s="25" t="n"/>
+      <c r="E41" s="25">
         <f>SUM(E34:E40)</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="17.1" r="42" s="21">
-      <c r="D42" s="23" t="inlineStr">
+    <row customHeight="1" ht="17.1" r="42" s="14">
+      <c r="D42" s="25" t="inlineStr">
         <is>
           <t>คลาดเคลือน</t>
         </is>
       </c>
-      <c r="E42" s="23" t="n"/>
+      <c r="E42" s="25" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
